--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davigrossihasuda/Documents/ITA/Cecilia/Labs/Lab 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689E53D3-DC7C-0546-9B5A-0B820C923946}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7D65B5-C253-F844-9BD5-A4EB35B174D5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1080" windowWidth="19660" windowHeight="11780" activeTab="2" xr2:uid="{31E22803-FCC2-EB49-A276-D8394DC3DD9D}"/>
+    <workbookView xWindow="60" yWindow="1080" windowWidth="19660" windowHeight="11780" activeTab="3" xr2:uid="{31E22803-FCC2-EB49-A276-D8394DC3DD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
   <si>
     <t>Versão</t>
   </si>
@@ -66,6 +67,15 @@
   </si>
   <si>
     <t>main3.cpp</t>
+  </si>
+  <si>
+    <t>Máquina</t>
+  </si>
+  <si>
+    <t>Hospedeira</t>
+  </si>
+  <si>
+    <t>Virtual</t>
   </si>
 </sst>
 </file>
@@ -135,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,6 +156,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C117785F-1117-D245-A8E1-71DB322ADBA0}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,4 +979,109 @@
   </sheetData>
   <pageMargins left="0.27559055119999998" right="0.27559055119999998" top="0.29527559060000003" bottom="0.29527559060000003" header="0.1181102362" footer="0.1181102362"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51DB0CD-FF49-834F-BFD6-ACA4609C706E}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.2648999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.4464000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.1086999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.9135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.6871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.5649000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.27559055119999998" right="0.27559055119999998" top="0.29527559060000003" bottom="0.29527559060000003" header="0.1181102362" footer="0.1181102362"/>
+</worksheet>
 </file>